--- a/InputFiles/CCDI/TC01_CCDI_phs000720_Sex-Female_Race-White_diseasephs-Relapse.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_phs000720_Sex-Female_Race-White_diseasephs-Relapse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\03-31-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\04-29-25\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91742114-4BCC-4D95-A38F-2B507285D012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C6FB70-96AC-4100-8A84-218B8BF428D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -261,9 +261,8 @@
     fd.file_access AS "File Access",
     std.dbgap_accession AS "Study ID",
     prt.participant_id AS "Participant ID",
-    smp.sample_id AS "Sample ID",
-    fd.file_source AS "File Source"
-FROM 
+    smp.sample_id AS "Sample ID"
+  FROM 
     df_study std
 LEFT JOIN df_participant prt ON std.id = prt."study.id"
 LEFT JOIN df_sample smp ON prt.id = smp."participant.id"

--- a/InputFiles/CCDI/TC01_CCDI_phs000720_Sex-Female_Race-White_diseasephs-Relapse.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_phs000720_Sex-Female_Race-White_diseasephs-Relapse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\04-29-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git2/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C6FB70-96AC-4100-8A84-218B8BF428D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75E5A50-97F2-FE42-BE9C-03F32EFB7CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="30860" windowHeight="19240" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,172 +108,387 @@
     <t>TC01_CCDI_phs000720_Sex-Female_Race-White_diseasephs-Relapse_WebData.xlsx</t>
   </si>
   <si>
-    <t>with diagnosis1 as (
-select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
-diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
-diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" ),
-diagnosis4 as (
-  select distinct "participant.id", diagnosis, disease_phase
-  from df_diagnosis
-  where "participant.id" is not null
+    <t>/* Participants — TC01 for phs000720
+   Filters:
+     - Sex at Birth = 'Female'
+     - Race LIKE '%White%'
+     - Diagnosis disease_phase = 'Relapse'
+   Output columns:
+     Participant ID | Study ID | Sex at Birth | Race | Diagnosis | Diagnosis Anatomic Site
+     | Diagnosis Category | Age at Diagnosis (days) | Treatment Type | Last Known Survival Status
+*/
+WITH base_study AS (
+  SELECT std.id AS study_row_id
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000720'
+),
+study_participants AS (
+  SELECT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN df_consent_group cg ON prt."consent_group.id" = cg.id
+  WHERE cg."study.id" IN (SELECT study_row_id FROM base_study)
+),
+dx_diag AS (
+  SELECT
+    t."participant.id" AS participant_row_id,
+    GROUP_CONCAT(t.diagnosis, ';') AS diagnosis_list
+  FROM (
+    SELECT DISTINCT
+      d."participant.id",
+      COALESCE(d.diagnosis, '') AS diagnosis
+    FROM df_diagnosis d
+    WHERE d."participant.id" IS NOT NULL
+  ) t
+  GROUP BY t."participant.id"
+),
+dx_site AS (
+  SELECT
+    t."participant.id" AS participant_row_id,
+    GROUP_CONCAT(t.anatomic_site, ';') AS diagnosis_anatomic_site_list
+  FROM (
+    SELECT DISTINCT
+      d."participant.id",
+      COALESCE(d.anatomic_site, '') AS anatomic_site
+    FROM df_diagnosis d
+    WHERE d."participant.id" IS NOT NULL
+  ) t
+  GROUP BY t."participant.id"
+),
+dx_cat AS (
+  SELECT
+    t."participant.id" AS participant_row_id,
+    GROUP_CONCAT(t.diagnosis_category, ';') AS diagnosis_category_list
+  FROM (
+    SELECT DISTINCT
+      d."participant.id",
+      COALESCE(d.diagnosis_category, '') AS diagnosis_category
+    FROM df_diagnosis d
+    WHERE d."participant.id" IS NOT NULL
+  ) t
+  GROUP BY t."participant.id"
+),
+dx_age AS (
+  SELECT
+    d."participant.id" AS participant_row_id,
+    GROUP_CONCAT(
+      CASE
+        WHEN COALESCE(CAST(d.age_at_diagnosis AS TEXT), '') IN ('', '-999') THEN NULL
+        ELSE CAST(d.age_at_diagnosis AS TEXT)
+      END,
+      ';'
+    ) AS age_days_list
+  FROM df_diagnosis d
+  WHERE d."participant.id" IS NOT NULL
+  GROUP BY d."participant.id"
+),
+relapse_filter AS (
+  SELECT DISTINCT
+    d."participant.id" AS participant_row_id
+  FROM df_diagnosis d
+  WHERE COALESCE(d.disease_phase, '') = 'Relapse'
+),
+tx_type AS (
+  -- No treatment TSV for this study; provide blank Treatment Type per participant
+  SELECT DISTINCT
+    sp.participant_row_id,
+    '' AS treatment_type_list
+  FROM study_participants sp
+),
+surv AS (
+  SELECT
+    "participant.id" AS participant_row_id,
+    MAX(COALESCE(last_known_survival_status, '')) AS last_known_survival_status
+  FROM df_survival
+  GROUP BY "participant.id"
 )
 SELECT DISTINCT
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    COALESCE(prt.sex_at_birth, '') AS "Sex",
-    COALESCE(prt.race, '') AS "Race",
-	dgn2.diag AS "Diagnosis",
-	dgn3.ant_site AS "Diagnosis Anatomic Site",
-	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
-	null AS "Treatment Type",
-	srv.last_known_survival_status AS "Last Known Survival Status"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
-LEFT JOIN 
-    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
-LEFT JOIN 
-    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
-LEFT JOIN 
-    diagnosis4 dgn4 ON prt.id = dgn4."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000720' and prt.sex_at_birth ='Female' and prt.race LIKE '%White%' and dgn4.disease_phase = 'Relapse'
-ORDER BY 
-    prt.participant_id ASC 
-;</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
-    COUNT(DISTINCT prt.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    (COUNT(DISTINCT seq.id) + COUNT(DISTINCT path.id)) AS "Files"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_sequencing_file seq ON smp.id = seq."sample.id"
-LEFT JOIN 
-    df_pathology_file path ON smp.id = path."sample.id"
-LEFT JOIN 
-  df_diagnosis dgn ON prt.id = dgn."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000720' and prt.sex_at_birth = 'Female' and prt.race LIKE '%White%' and dgn.disease_phase = 'Relapse';</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    smp.anatomic_site AS "Sample Anatomic Site",
-    COALESCE(
-        CASE 
-            WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' 
-            ELSE smp.participant_age_at_collection 
-        END, 
-        0
-    ) AS "Age at Sample Collection (days)",
-    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
-    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
-    Null AS "Sample Diagnosis"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000720' 
-    AND prt.sex_at_birth = 'Female'
-   AND prt.race LIKE '%White%'
-   AND dgn.disease_phase = 'Relapse' 
-    AND smp.sample_id IS NOT NULL
-ORDER BY 
-    smp.sample_id ASC;</t>
-  </si>
-  <si>
-    <t>WITH file_data AS (
-    SELECT 
-        file_name, 
-        data_category,
-        file_type, 
-        file_size,
-        file_access,  
-        file_description,
-        "sample.id",
-        'Sequencing' AS file_source
-    FROM df_sequencing_file
-    UNION
-    SELECT 
-        file_name, 
-        data_category,
-        file_type, 
-        file_size,
-        file_access,  
-        file_description,
-        "sample.id",
-        'Pathology' AS file_source
-    FROM df_pathology_file
+  prt.participant_id                                 AS "Participant ID",
+  'phs000720'                                        AS "Study ID",
+  COALESCE(prt.sex_at_birth, '')                     AS "Sex at Birth",
+  COALESCE(prt.race, '')                             AS "Race",
+  COALESCE(dx_diag.diagnosis_list, '')               AS "Diagnosis",
+  COALESCE(dx_site.diagnosis_anatomic_site_list, '') AS "Diagnosis Anatomic Site",
+  COALESCE(dx_cat.diagnosis_category_list, '')       AS "Diagnosis Category",
+  COALESCE(dx_age.age_days_list, '')                 AS "Age at Diagnosis (days)",
+  COALESCE(tx_type.treatment_type_list, '')          AS "Treatment Type",
+  COALESCE(surv.last_known_survival_status, '')      AS "Last Known Survival Status"
+FROM study_participants sp
+JOIN df_participant prt ON prt.id = sp.participant_row_id
+LEFT JOIN dx_diag ON prt.id = dx_diag.participant_row_id
+LEFT JOIN dx_site ON prt.id = dx_site.participant_row_id
+LEFT JOIN dx_cat  ON prt.id = dx_cat.participant_row_id
+LEFT JOIN dx_age  ON prt.id = dx_age.participant_row_id
+LEFT JOIN tx_type ON prt.id = tx_type.participant_row_id
+LEFT JOIN surv    ON prt.id = surv.participant_row_id
+JOIN relapse_filter rf ON prt.id = rf.participant_row_id
+WHERE prt.sex_at_birth = 'Female'
+  AND prt.race LIKE '%White%'
+ORDER BY prt.participant_id ASC;</t>
+  </si>
+  <si>
+    <t>/* Stat Bar — TC01 for phs000720
+   Columns (single row): Studies | Participants | Samples | Files
+   Filters:
+     - Sex at Birth = 'Female'
+     - Race LIKE '%White%'
+     - Diagnosis disease_phase = 'Relapse'
+   Files:
+     - Count distinct DCF file GUIDs (dcf_indexd_guid) across sequencing + pathology
+*/
+WITH base_study AS (
+  SELECT std.id AS study_row_id
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000720'
+),
+-- participants linked to this study via consent group
+study_participants AS (
+  SELECT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN df_consent_group cg ON prt."consent_group.id" = cg.id
+  JOIN base_study b        ON cg."study.id" = b.study_row_id
+),
+-- participants that have a Relapse diagnosis
+relapse_filter AS (
+  SELECT DISTINCT d."participant.id" AS participant_row_id
+  FROM df_diagnosis d
+  WHERE COALESCE(d.disease_phase, '') = 'Relapse'
+),
+-- participants that satisfy ALL TC01 filters
+filtered_participants AS (
+  SELECT DISTINCT sp.participant_row_id
+  FROM study_participants sp
+  JOIN df_participant prt ON prt.id = sp.participant_row_id
+  JOIN relapse_filter rf  ON rf.participant_row_id = prt.id
+  WHERE prt.sex_at_birth = 'Female'
+    AND prt.race LIKE '%White%'
+),
+-- samples belonging to filtered participants
+eligible_samples AS (
+  SELECT DISTINCT smp.id AS sample_row_id
+  FROM df_sample smp
+  JOIN filtered_participants fp
+    ON smp."participant.id" = fp.participant_row_id
+),
+-- sequencing files from eligible samples (use dcf_indexd_guid)
+eligible_seq_files AS (
+  SELECT DISTINCT seq.dcf_indexd_guid AS file_guid
+  FROM df_sequencing_file seq
+  JOIN eligible_samples es ON seq."sample.id" = es.sample_row_id
+  WHERE seq.dcf_indexd_guid IS NOT NULL
+),
+-- pathology files from eligible samples (use dcf_indexd_guid)
+eligible_path_files AS (
+  SELECT DISTINCT path.dcf_indexd_guid AS file_guid
+  FROM df_pathology_file path
+  JOIN eligible_samples es ON path."sample.id" = es.sample_row_id
+  WHERE path.dcf_indexd_guid IS NOT NULL
+),
+all_files AS (
+  SELECT file_guid FROM eligible_seq_files
+  UNION
+  SELECT file_guid FROM eligible_path_files
+)
+SELECT
+  CASE
+    WHEN (SELECT COUNT(*) FROM filtered_participants) &gt; 0
+    THEN 1 ELSE 0
+  END AS "Studies",
+  (SELECT COUNT(DISTINCT participant_row_id) FROM filtered_participants) AS "Participants",
+  (SELECT COUNT(DISTINCT sample_row_id)      FROM eligible_samples)      AS "Samples",
+  (SELECT COUNT(DISTINCT file_guid)          FROM all_files)             AS "Files";</t>
+  </si>
+  <si>
+    <t>/* Samples — TC01 for phs000720
+   Filters:
+     - Sex at Birth = 'Female'
+     - Race LIKE '%White%'
+     - Diagnosis disease_phase = 'Relapse'
+   Output columns:
+     Sample ID | Participant ID | Study ID | Sample Anatomic Site
+     | Age at Sample Collection (days) | Sample Tumor Status
+     | Sample Tumor Classification | Sample Diagnosis | Diagnosis Category
+*/
+WITH base_study AS (
+  SELECT std.id AS study_row_id
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000720'
+),
+-- participants linked to this study via consent group
+study_participants AS (
+  SELECT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN df_consent_group cg ON prt."consent_group.id" = cg.id
+  JOIN base_study b        ON cg."study.id" = b.study_row_id
+),
+-- participants that have a Relapse diagnosis
+relapse_filter AS (
+  SELECT DISTINCT d."participant.id" AS participant_row_id
+  FROM df_diagnosis d
+  WHERE COALESCE(d.disease_phase, '') = 'Relapse'
+),
+-- participants that satisfy ALL TC01 filters
+filtered_participants AS (
+  SELECT DISTINCT sp.participant_row_id
+  FROM study_participants sp
+  JOIN df_participant prt ON prt.id = sp.participant_row_id
+  JOIN relapse_filter rf  ON rf.participant_row_id = prt.id
+  WHERE prt.sex_at_birth = 'Female'
+    AND prt.race LIKE '%White%'
+),
+-- samples belonging to filtered participants
+eligible_samples AS (
+  SELECT DISTINCT smp.id AS sample_row_id
+  FROM df_sample smp
+  JOIN filtered_participants fp
+    ON smp."participant.id" = fp.participant_row_id
+  WHERE smp.sample_id IS NOT NULL
 )
 SELECT DISTINCT
-    fd.file_name AS "File Name",
-    fd.data_category AS "Data Category",
-    COALESCE(fd.file_description, '') AS "File Description",
-    fd.file_type AS "File Type",
-    CASE
-        WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN
-            CASE 
-                WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT)
-                THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-                ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-            END
-        WHEN fd.file_size &gt;= 1024 * 1024 THEN
-            CASE 
-                WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT)
-                THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-                ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
-            END
-        WHEN fd.file_size &gt;= 1024 THEN
-            CASE 
-                WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT)
-                THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-                ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
-            END
-        ELSE 
-            CASE 
-                WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT)
-                THEN CAST(CAST(ROUND(fd.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-                ELSE ROUND(fd.file_size, 2) || ' Bytes'
-            END
-    END AS "File Size",
-    fd.file_access AS "File Access",
-    std.dbgap_accession AS "Study ID",
-    prt.participant_id AS "Participant ID",
-    smp.sample_id AS "Sample ID"
-  FROM 
-    df_study std
-LEFT JOIN df_participant prt ON std.id = prt."study.id"
-LEFT JOIN df_sample smp ON prt.id = smp."participant.id"
-JOIN file_data fd ON smp.id = fd."sample.id"
-LEFT JOIN df_diagnosis dgn ON prt.id = dgn."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000720'
-    AND prt.sex_at_birth = 'Female'
+  smp.sample_id                      AS "Sample ID",
+  prt.participant_id                 AS "Participant ID",
+  'phs000720'                        AS "Study ID",
+  COALESCE(smp.anatomic_site, '')    AS "Sample Anatomic Site",
+  COALESCE(
+    CASE 
+      WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported'
+      ELSE smp.participant_age_at_collection
+    END,
+    0
+  )                                  AS "Age at Sample Collection (days)",
+  COALESCE(smp.sample_tumor_status, '')      AS "Sample Tumor Status",
+  COALESCE(smp.tumor_classification, '')     AS "Sample Tumor Classification",
+  ''                                        AS "Sample Diagnosis",
+  ''                                        AS "Diagnosis Category"
+FROM eligible_samples es
+JOIN df_sample smp        ON es.sample_row_id = smp.id
+JOIN df_participant prt   ON smp."participant.id" = prt.id
+ORDER BY smp.sample_id ASC;</t>
+  </si>
+  <si>
+    <t>/* Files — TC01 for phs000720
+   Filters:
+     - Sex at Birth = 'Female'
+     - Race LIKE '%White%'
+     - Diagnosis disease_phase = 'Relapse'
+   Sources:
+     - df_sequencing_file
+     - df_pathology_file
+   Output columns:
+     File Name | Data Category | File Description | File Type | File Size
+     | File Access | Study ID | Participant ID | Sample ID
+*/
+WITH base_study AS (
+  SELECT std.id AS study_row_id
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000720'
+),
+-- participants in this study (via consent group)
+study_participants AS (
+  SELECT prt.id AS participant_row_id
+  FROM df_participant prt
+  JOIN df_consent_group cg
+    ON prt."consent_group.id" = cg.id
+  WHERE cg."study.id" IN (SELECT study_row_id FROM base_study)
+),
+-- participants that have a Relapse diagnosis
+relapse_filter AS (
+  SELECT DISTINCT d."participant.id" AS participant_row_id
+  FROM df_diagnosis d
+  WHERE COALESCE(d.disease_phase, '') = 'Relapse'
+),
+-- participants that satisfy ALL TC01 filters
+filtered_participants AS (
+  SELECT DISTINCT sp.participant_row_id
+  FROM study_participants sp
+  JOIN df_participant prt
+    ON prt.id = sp.participant_row_id
+  JOIN relapse_filter rf
+    ON rf.participant_row_id = prt.id
+  WHERE prt.sex_at_birth = 'Female'
     AND prt.race LIKE '%White%'
-    AND dgn.disease_phase = 'Relapse'
-ORDER BY fd.file_name 
+),
+-- samples belonging to filtered participants
+eligible_samples AS (
+  SELECT DISTINCT smp.id AS sample_row_id
+  FROM df_sample smp
+  JOIN filtered_participants fp
+    ON smp."participant.id" = fp.participant_row_id
+  WHERE smp.sample_id IS NOT NULL
+),
+-- all sequencing + pathology files (per-sample) for this dataset
+file_data AS (
+  SELECT 
+    file_name,
+    REPLACE(COALESCE(data_category, ''), ';', ', ') AS data_category,
+    COALESCE(file_description, '')                  AS file_description,
+    file_type,
+    file_access,
+    COALESCE(file_size, 0)                          AS file_size,
+    "sample.id"                                     AS sample_row_id
+  FROM df_sequencing_file
+  UNION ALL
+  SELECT 
+    file_name,
+    REPLACE(COALESCE(data_category, ''), ';', ', ') AS data_category,
+    COALESCE(file_description, '')                  AS file_description,
+    file_type,
+    file_access,
+    COALESCE(file_size, 0)                          AS file_size,
+    "sample.id"                                     AS sample_row_id
+  FROM df_pathology_file
+),
+-- restrict files to samples that pass the TC01 participant/diagnosis filters
+eligible_files AS (
+  SELECT DISTINCT fd.*
+  FROM file_data fd
+  JOIN eligible_samples es
+    ON fd.sample_row_id = es.sample_row_id
+)
+SELECT DISTINCT
+  ef.file_name                        AS "File Name",
+  ef.data_category                    AS "Data Category",
+  ef.file_description                 AS "File Description",
+  ef.file_type                        AS "File Type",
+  CASE
+    WHEN ef.file_size &gt;= 1024 * 1024 * 1024 THEN
+      CASE 
+        WHEN ROUND(ef.file_size / (1024.0 * 1024.0 * 1024.0), 2) =
+             CAST(ROUND(ef.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT)
+        THEN CAST(CAST(ROUND(ef.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+        ELSE ROUND(ef.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+      END
+    WHEN ef.file_size &gt;= 1024 * 1024 THEN
+      CASE 
+        WHEN ROUND(ef.file_size / (1024.0 * 1024.0), 2) =
+             CAST(ROUND(ef.file_size / (1024.0 * 1024.0), 0) AS INT)
+        THEN CAST(CAST(ROUND(ef.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+        ELSE ROUND(ef.file_size / (1024.0 * 1024.0), 2) || ' MB'
+      END
+    WHEN ef.file_size &gt;= 1024 THEN
+      CASE 
+        WHEN ROUND(ef.file_size / 1024.0, 2) =
+             CAST(ROUND(ef.file_size / 1024.0, 0) AS INT)
+        THEN CAST(CAST(ROUND(ef.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+        ELSE ROUND(ef.file_size / 1024.0, 2) || ' KB'
+      END
+    ELSE 
+      CASE 
+        WHEN ROUND(ef.file_size, 2) =
+             CAST(ROUND(ef.file_size, 0) AS INT)
+        THEN CAST(CAST(ROUND(ef.file_size, 0) AS INT) AS TEXT) || ' Bytes'
+        ELSE ROUND(ef.file_size, 2) || ' Bytes'
+      END
+  END                                AS "File Size",
+  ef.file_access                     AS "File Access",
+  'phs000720'                        AS "Study ID",
+  '[' || prt.participant_id || ']'   AS "Participant ID",
+  '[' || smp.sample_id || ']'        AS "Sample ID"
+FROM eligible_files ef
+JOIN df_sample smp
+  ON smp.id = ef.sample_row_id
+JOIN df_participant prt
+  ON smp."participant.id" = prt.id
+ORDER BY ef.file_name
 LIMIT 100;</t>
   </si>
 </sst>
@@ -281,9 +496,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -343,14 +565,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -676,19 +901,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.83203125" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" customWidth="1"/>
+    <col min="5" max="5" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -705,14 +930,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
@@ -722,7 +947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -731,33 +956,33 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/InputFiles/CCDI/TC01_CCDI_phs000720_Sex-Female_Race-White_diseasephs-Relapse.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_phs000720_Sex-Female_Race-White_diseasephs-Relapse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git2/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75E5A50-97F2-FE42-BE9C-03F32EFB7CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DDAA87-5C35-274C-ADF6-3A9E719C77FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="30860" windowHeight="19240" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -481,8 +481,8 @@
   END                                AS "File Size",
   ef.file_access                     AS "File Access",
   'phs000720'                        AS "Study ID",
-  '[' || prt.participant_id || ']'   AS "Participant ID",
-  '[' || smp.sample_id || ']'        AS "Sample ID"
+  prt.participant_id   AS "Participant ID",
+  smp.sample_id        AS "Sample ID"
 FROM eligible_files ef
 JOIN df_sample smp
   ON smp.id = ef.sample_row_id
@@ -496,9 +496,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -565,14 +572,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -901,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -969,7 +979,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
@@ -982,7 +992,7 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
